--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -48,12 +48,84 @@
 int32</t>
       </text>
     </comment>
+    <comment ref="F1" authorId="1">
+      <text>
+        <t>name
+string</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <t>description
+string</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <t>effects
+array of (int64)</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <t>conditions
+array of (int64)</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1">
+      <text>
+        <t>name
+string</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <t>description
+string</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <t>effects
+array of (int64)</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1">
+      <text>
+        <t>conditions
+array of (int64)</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1">
+      <text>
+        <t>name
+string</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1">
+      <text>
+        <t>description
+string</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1">
+      <text>
+        <t>effects
+array of (int64)</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1">
+      <text>
+        <t>conditions
+array of (int64)</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>触发事件id</t>
   </si>
@@ -68,6 +140,42 @@
   </si>
   <si>
     <t>默认选项</t>
+  </si>
+  <si>
+    <t>选项@0.选项名称</t>
+  </si>
+  <si>
+    <t>选项@0.描述</t>
+  </si>
+  <si>
+    <t>选项@0.效果</t>
+  </si>
+  <si>
+    <t>选项@0.条件</t>
+  </si>
+  <si>
+    <t>选项@1.选项名称</t>
+  </si>
+  <si>
+    <t>选项@1.描述</t>
+  </si>
+  <si>
+    <t>选项@1.效果</t>
+  </si>
+  <si>
+    <t>选项@1.条件</t>
+  </si>
+  <si>
+    <t>选项@2.选项名称</t>
+  </si>
+  <si>
+    <t>选项@2.描述</t>
+  </si>
+  <si>
+    <t>选项@2.效果</t>
+  </si>
+  <si>
+    <t>选项@2.条件</t>
   </si>
 </sst>
 </file>
@@ -104,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -117,17 +226,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.0" customWidth="true"/>
-    <col min="2" max="2" style="1" width="8.0" customWidth="false"/>
-    <col min="3" max="3" style="1" width="9.0" customWidth="true"/>
-    <col min="4" max="4" style="1" width="9.0" customWidth="true"/>
-    <col min="5" max="5" style="1" width="9.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="false" style="1" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="6" max="6" style="2" width="16.0" customWidth="true"/>
+    <col min="7" max="7" style="2" width="12.0" customWidth="true"/>
+    <col min="8" max="8" style="2" width="12.0" customWidth="true"/>
+    <col min="9" max="9" style="2" width="12.0" customWidth="true"/>
+    <col min="10" max="10" style="2" width="16.0" customWidth="true"/>
+    <col min="11" max="11" style="2" width="12.0" customWidth="true"/>
+    <col min="12" max="12" style="2" width="12.0" customWidth="true"/>
+    <col min="13" max="13" style="2" width="12.0" customWidth="true"/>
+    <col min="14" max="14" style="2" width="16.0" customWidth="true"/>
+    <col min="15" max="15" style="2" width="12.0" customWidth="true"/>
+    <col min="16" max="16" style="2" width="12.0" customWidth="true"/>
+    <col min="17" max="17" style="2" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -145,6 +266,42 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -1,123 +1,283 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D93DB5-3738-4A26-ADFE-AF37C836D57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="3465" yWindow="4995" windowWidth="19290" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#突发事件配置" r:id="rId3" sheetId="1"/>
+    <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>PBJSON</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
-      <text>
-        <t>emergencyId
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>emergencyId
 int64</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1">
-      <text>
-        <t>name
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>name
 string</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1">
-      <text>
-        <t>description
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>description
 string</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1">
-      <text>
-        <t>timeOffset
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>timeOffset
 uint32</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1">
-      <text>
-        <t>defaultOption
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>defaultOption
 int32</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1">
-      <text>
-        <t>name
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>name
 string</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1">
-      <text>
-        <t>description
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>description
 string</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="1">
-      <text>
-        <t>effects
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>effects
 array of (int64)</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="1">
-      <text>
-        <t>conditions
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>conditions
 array of (int64)</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1">
-      <text>
-        <t>name
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>name
 string</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="1">
-      <text>
-        <t>description
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>description
 string</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="1">
-      <text>
-        <t>effects
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>effects
 array of (int64)</t>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="1">
-      <text>
-        <t>conditions
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>conditions
 array of (int64)</t>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="1">
-      <text>
-        <t>name
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>name
 string</t>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="1">
-      <text>
-        <t>description
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>description
 string</t>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="1">
-      <text>
-        <t>effects
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>effects
 array of (int64)</t>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="1">
-      <text>
-        <t>conditions
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>conditions
 array of (int64)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -125,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>触发事件id</t>
   </si>
@@ -176,31 +336,85 @@
   </si>
   <si>
     <t>选项@2.条件</t>
+  </si>
+  <si>
+    <t>艰难抉择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼干还是猫薄荷，这是一个问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏实地才是合理之举。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫薄荷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣草才能引领我们抵达真实。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,50 +422,377 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="false" style="1" width="8.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="6" max="6" style="2" width="16.0" customWidth="true"/>
-    <col min="7" max="7" style="2" width="12.0" customWidth="true"/>
-    <col min="8" max="8" style="2" width="12.0" customWidth="true"/>
-    <col min="9" max="9" style="2" width="12.0" customWidth="true"/>
-    <col min="10" max="10" style="2" width="16.0" customWidth="true"/>
-    <col min="11" max="11" style="2" width="12.0" customWidth="true"/>
-    <col min="12" max="12" style="2" width="12.0" customWidth="true"/>
-    <col min="13" max="13" style="2" width="12.0" customWidth="true"/>
-    <col min="14" max="14" style="2" width="16.0" customWidth="true"/>
-    <col min="15" max="15" style="2" width="12.0" customWidth="true"/>
-    <col min="16" max="16" style="2" width="12.0" customWidth="true"/>
-    <col min="17" max="17" style="2" width="12.0" customWidth="true"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1"/>
+    <col min="3" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16" style="2" customWidth="1"/>
+    <col min="15" max="17" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -304,9 +845,61 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5">
+        <v>50001</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D93DB5-3738-4A26-ADFE-AF37C836D57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1815F37-84D9-4592-826E-0BA7E85117B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="4995" windowWidth="19290" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11355" yWindow="4725" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
@@ -280,12 +280,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <t>picture
+string</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>触发事件id</t>
   </si>
@@ -360,12 +366,16 @@
   <si>
     <t>圣草才能引领我们抵达真实。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +469,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,6 +485,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,15 +796,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1"/>
-    <col min="3" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="17" width="12" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.0" collapsed="false"/>
+    <col min="2" max="2" style="1" width="8.0" collapsed="false"/>
+    <col min="3" max="5" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="16.0" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="2" width="12.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="2" width="16.0" collapsed="false"/>
+    <col min="11" max="13" customWidth="true" style="2" width="12.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="2" width="16.0" collapsed="false"/>
+    <col min="15" max="17" customWidth="true" style="2" width="12.0" collapsed="false"/>
+    <col min="18" max="18" style="7" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -843,6 +859,9 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -900,6 +919,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1815F37-84D9-4592-826E-0BA7E85117B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031CC15-D56C-4389-A1DD-23460AA9E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="4725" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="5205" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -280,10 +280,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <t>picture
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>picture
 string</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -291,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>触发事件id</t>
   </si>
@@ -369,13 +378,20 @@
   </si>
   <si>
     <t>图片</t>
+  </si>
+  <si>
+    <t>分支测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,7 +485,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,10 +501,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,24 +800,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.0" collapsed="false"/>
-    <col min="2" max="2" style="1" width="8.0" collapsed="false"/>
-    <col min="3" max="5" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="16.0" collapsed="false"/>
-    <col min="7" max="9" customWidth="true" style="2" width="12.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="16.0" collapsed="false"/>
-    <col min="11" max="13" customWidth="true" style="2" width="12.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="16.0" collapsed="false"/>
-    <col min="15" max="17" customWidth="true" style="2" width="12.0" collapsed="false"/>
-    <col min="18" max="18" style="7" width="8.0" customWidth="false"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1"/>
+    <col min="3" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="13" width="12" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16" style="2" customWidth="1"/>
+    <col min="15" max="17" width="12" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -916,10 +928,61 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>20001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031CC15-D56C-4389-A1DD-23460AA9E37F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD2580-CDCD-487E-B3DB-CE64C662C390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="5205" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>触发事件id</t>
   </si>
@@ -385,6 +385,10 @@
   </si>
   <si>
     <t>测试用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Main/4刺探事件卡片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +807,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -920,7 +924,9 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2"/>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -972,7 +978,9 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3"/>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD2580-CDCD-487E-B3DB-CE64C662C390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D333333-EF71-48D3-895A-8DA3D8ABDFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="4320" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -300,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
   <si>
     <t>触发事件id</t>
   </si>
@@ -380,23 +390,276 @@
     <t>图片</t>
   </si>
   <si>
-    <t>分支测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprites/Main/4刺探事件卡片</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇守卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移注意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷眼旁观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的契约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆的警觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续活跃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉隐匿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点石成金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿走金子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静观其变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头戏法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐猫取乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护猫咪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得影响，掉隐匿，救猫flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持低调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉影响，加隐匿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷梁换柱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换把好剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利flag，隐匿度-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换把钝剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝点酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默默看着</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降心防</t>
+  </si>
+  <si>
+    <t>小插曲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营造气氛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受启明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教猫入神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受美梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鼠工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不准抓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以抓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鼠毒药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鼠猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃捕鼠</t>
+  </si>
+  <si>
+    <t>认真工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截密函</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向亲王告密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向国王汇报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加金币与影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿还</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱也不都是他的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补足资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行游说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪审判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔细翻找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮班翻找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500032, 500033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515101,515102,515103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515111,515112,515113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516101,516102,516103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516122,516123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Main/5刺探事件卡片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -417,8 +680,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +710,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +766,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -804,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="L12" sqref="L11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -891,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -902,8 +1190,8 @@
       <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5">
-        <v>50000</v>
+      <c r="H2" s="11">
+        <v>1005</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -915,17 +1203,23 @@
         <v>22</v>
       </c>
       <c r="L2" s="5">
-        <v>50001</v>
+        <v>1006</v>
       </c>
       <c r="M2" s="5">
         <v>0</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S2"/>
       <c r="T2"/>
@@ -936,50 +1230,50 @@
     </row>
     <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>20001</v>
+        <v>20003</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5">
-        <v>50000</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="5">
         <v>0</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4"/>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S3"/>
       <c r="T3"/>
@@ -988,6 +1282,896 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>20007</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11">
+        <v>500072</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>500073</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>21010</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11">
+        <v>510101</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="5">
+        <v>510102</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>21510</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="5">
+        <v>515104</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>21511</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="5">
+        <v>515114</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>21610</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="10">
+        <v>516104516105</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>21612</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="5">
+        <v>516124</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>21613</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="11">
+        <v>516131</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="5">
+        <v>516132</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>21712</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="11">
+        <v>517121</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="5">
+        <v>517122</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>21713</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="11">
+        <v>517131</v>
+      </c>
+      <c r="I14" s="5">
+        <v>418112</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="5">
+        <v>517132</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>21910</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="11">
+        <v>519102</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>21911</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="11">
+        <v>519112</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>21912</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>22012</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>22016</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="11">
+        <v>520161</v>
+      </c>
+      <c r="I19" s="5">
+        <v>420165</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="5">
+        <v>520162</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>23000</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="11">
+        <v>530001</v>
+      </c>
+      <c r="I21" s="5">
+        <v>420165</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="5">
+        <v>530002</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20104</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1005</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1006</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D333333-EF71-48D3-895A-8DA3D8ABDFCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E9E600-5D3E-4B1E-B252-E7C4CFD30772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="4320" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L11:L12"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1802,9 @@
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
       <c r="K15" s="9" t="s">
         <v>66</v>
       </c>
@@ -1852,7 +1854,9 @@
       <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
       <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
@@ -2067,7 +2071,9 @@
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
       <c r="G21" s="9" t="s">
         <v>81</v>
       </c>
@@ -2077,7 +2083,9 @@
       <c r="I21" s="5">
         <v>420165</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
       <c r="K21" s="9" t="s">
         <v>82</v>
       </c>
@@ -2175,6 +2183,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E9E600-5D3E-4B1E-B252-E7C4CFD30772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC871D2-67AE-4AAA-B0ED-B9E084675520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11805" yWindow="5010" windowWidth="22455" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>触发事件id</t>
   </si>
@@ -653,6 +653,10 @@
   </si>
   <si>
     <t>Sprites/Main/5刺探事件卡片</t>
+  </si>
+  <si>
+    <t>516104,516105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -772,11 +776,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,7 +1099,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1110,9 @@
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="9" width="12" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="13" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
     <col min="15" max="17" width="12" style="2" customWidth="1"/>
     <col min="18" max="18" width="8" style="7"/>
@@ -1146,7 +1152,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1190,7 +1196,7 @@
       <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>1005</v>
       </c>
       <c r="I2" s="5">
@@ -1202,7 +1208,7 @@
       <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="10">
         <v>1006</v>
       </c>
       <c r="M2" s="5">
@@ -1246,7 +1252,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I3" s="5">
@@ -1256,7 +1262,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="5">
+      <c r="L3" s="10">
         <v>0</v>
       </c>
       <c r="M3" s="5">
@@ -1300,7 +1306,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>500072</v>
       </c>
       <c r="I4" s="5">
@@ -1310,7 +1316,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5">
+      <c r="L4" s="10">
         <v>500073</v>
       </c>
       <c r="M4" s="5">
@@ -1342,7 +1348,6 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1369,7 +1374,7 @@
       <c r="G6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>510101</v>
       </c>
       <c r="I6" s="5">
@@ -1381,7 +1386,7 @@
       <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="10">
         <v>510102</v>
       </c>
       <c r="M6" s="5">
@@ -1413,7 +1418,6 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1438,7 +1442,7 @@
         <v>37</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I8" s="5">
@@ -1448,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="5">
+      <c r="L8" s="10">
         <v>515104</v>
       </c>
       <c r="M8" s="5">
@@ -1486,7 +1490,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>87</v>
       </c>
       <c r="I9" s="5">
@@ -1496,7 +1500,7 @@
         <v>38</v>
       </c>
       <c r="K9" s="9"/>
-      <c r="L9" s="5">
+      <c r="L9" s="10">
         <v>515114</v>
       </c>
       <c r="M9" s="5">
@@ -1536,7 +1540,7 @@
       <c r="G10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>88</v>
       </c>
       <c r="I10" s="5">
@@ -1548,8 +1552,8 @@
       <c r="K10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="10">
-        <v>516104516105</v>
+      <c r="L10" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -1588,7 +1592,7 @@
       <c r="G11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>89</v>
       </c>
       <c r="I11" s="5">
@@ -1600,7 +1604,7 @@
       <c r="K11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="10">
         <v>516124</v>
       </c>
       <c r="M11" s="5">
@@ -1640,7 +1644,7 @@
       <c r="G12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>516131</v>
       </c>
       <c r="I12" s="5">
@@ -1652,7 +1656,7 @@
       <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="10">
         <v>516132</v>
       </c>
       <c r="M12" s="5">
@@ -1692,7 +1696,7 @@
       <c r="G13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>517121</v>
       </c>
       <c r="I13" s="5">
@@ -1704,7 +1708,7 @@
       <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="10">
         <v>517122</v>
       </c>
       <c r="M13" s="5">
@@ -1744,7 +1748,7 @@
       <c r="G14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>517131</v>
       </c>
       <c r="I14" s="5">
@@ -1756,7 +1760,7 @@
       <c r="K14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="10">
         <v>517132</v>
       </c>
       <c r="M14" s="5">
@@ -1796,7 +1800,7 @@
       <c r="G15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>519102</v>
       </c>
       <c r="I15" s="5">
@@ -1808,7 +1812,7 @@
       <c r="K15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="10">
         <v>0</v>
       </c>
       <c r="M15" s="5">
@@ -1848,7 +1852,7 @@
       <c r="G16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>519112</v>
       </c>
       <c r="I16" s="5">
@@ -1860,7 +1864,7 @@
       <c r="K16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="10">
         <v>0</v>
       </c>
       <c r="M16" s="5">
@@ -1900,7 +1904,7 @@
       <c r="G17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>0</v>
       </c>
       <c r="I17" s="5">
@@ -1912,7 +1916,7 @@
       <c r="K17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="10">
         <v>0</v>
       </c>
       <c r="M17" s="5">
@@ -1952,7 +1956,7 @@
       <c r="G18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>0</v>
       </c>
       <c r="I18" s="5">
@@ -1964,7 +1968,7 @@
       <c r="K18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="10">
         <v>0</v>
       </c>
       <c r="M18" s="5">
@@ -2006,7 +2010,7 @@
       <c r="G19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>520161</v>
       </c>
       <c r="I19" s="5">
@@ -2018,7 +2022,7 @@
       <c r="K19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="10">
         <v>520162</v>
       </c>
       <c r="M19" s="5">
@@ -2050,7 +2054,6 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2077,7 +2080,7 @@
       <c r="G21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>530001</v>
       </c>
       <c r="I21" s="5">
@@ -2089,7 +2092,7 @@
       <c r="K21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="10">
         <v>530002</v>
       </c>
       <c r="M21" s="5">
@@ -2121,7 +2124,6 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2148,7 +2150,7 @@
       <c r="G23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>1005</v>
       </c>
       <c r="I23" s="5">
@@ -2160,7 +2162,7 @@
       <c r="K23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="10">
         <v>1006</v>
       </c>
       <c r="M23" s="5">

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC871D2-67AE-4AAA-B0ED-B9E084675520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D5FC5-D696-4218-B63B-D3C43EA80262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="5010" windowWidth="22455" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10095" yWindow="4905" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>触发事件id</t>
   </si>
@@ -644,10 +644,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>516101,516102,516103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>516122,516123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -655,8 +651,27 @@
     <t>Sprites/Main/5刺探事件卡片</t>
   </si>
   <si>
-    <t>516104,516105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>[516101,516102,516103]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[516104,516105]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517132</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521122,521123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521124</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1348,7 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1403,33 +1418,63 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="A7" s="3">
+        <v>21510</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10">
+        <v>515104</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>21510</v>
+        <v>21511</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
@@ -1443,7 +1488,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1453,7 +1498,7 @@
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="10">
-        <v>515104</v>
+        <v>515114</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -1469,15 +1514,15 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>21511</v>
+        <v>21610</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
@@ -1487,21 +1532,25 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="H9" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10">
-        <v>515114</v>
+        <v>43</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -1517,15 +1566,15 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>21610</v>
+        <v>21612</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
@@ -1535,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>88</v>
@@ -1547,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="L10" s="10">
+        <v>516124</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -1569,15 +1618,15 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>21612</v>
+        <v>21613</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -1587,25 +1636,25 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="H11" s="10">
+        <v>516131</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L11" s="10">
-        <v>516124</v>
+        <v>516132</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -1621,15 +1670,15 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>21613</v>
+        <v>21712</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
@@ -1639,25 +1688,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="10">
+        <v>517121</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="10">
-        <v>516131</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="L12" s="10">
-        <v>516132</v>
+        <v>517122</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -1673,15 +1722,15 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>21712</v>
+        <v>21811</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -1691,25 +1740,25 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="10">
-        <v>517121</v>
+        <v>60</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
+        <v>418112</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="10">
-        <v>517122</v>
+        <v>62</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -1725,15 +1774,15 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>21713</v>
+        <v>21910</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
@@ -1743,25 +1792,23 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H14" s="10">
-        <v>517131</v>
+        <v>519102</v>
       </c>
       <c r="I14" s="5">
-        <v>418112</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14" s="10">
-        <v>517132</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
@@ -1777,15 +1824,15 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>21910</v>
+        <v>21911</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -1801,14 +1848,12 @@
         <v>65</v>
       </c>
       <c r="H15" s="10">
-        <v>519102</v>
+        <v>519112</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="J15" s="5">
-        <v>2</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="9" t="s">
         <v>66</v>
       </c>
@@ -1829,15 +1874,15 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>21911</v>
+        <v>21912</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
@@ -1847,19 +1892,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H16" s="10">
-        <v>519112</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="5">
-        <v>2</v>
+      <c r="J16" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>66</v>
@@ -1881,15 +1926,15 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>21912</v>
+        <v>22012</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -1899,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H17" s="10">
         <v>0</v>
@@ -1911,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L17" s="10">
         <v>0</v>
@@ -1933,17 +1978,19 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>22012</v>
+        <v>22016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D18" s="4">
         <v>5</v>
       </c>
@@ -1951,25 +1998,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>421123</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -1985,201 +2032,147 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>22016</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="10">
-        <v>520161</v>
-      </c>
-      <c r="I19" s="5">
-        <v>420165</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="10">
-        <v>520162</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" t="s">
-        <v>90</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="A20" s="3">
+        <v>23000</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="10">
+        <v>530001</v>
+      </c>
+      <c r="I20" s="5">
+        <v>420165</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="10">
+        <v>530002</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>23000</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="10">
-        <v>530001</v>
-      </c>
-      <c r="I21" s="5">
-        <v>420165</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="10">
-        <v>530002</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" t="s">
-        <v>90</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A22" s="3">
         <v>20104</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D22" s="4">
         <v>5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H22" s="10">
         <v>1005</v>
       </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L22" s="10">
         <v>1006</v>
       </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" t="s">
-        <v>90</v>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D5FC5-D696-4218-B63B-D3C43EA80262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40D50D8-8D98-4BBE-A0A6-78708850A05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="4905" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="5610" windowWidth="21195" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <t>触发事件id</t>
   </si>
@@ -363,37 +363,9 @@
     <t>选项@2.条件</t>
   </si>
   <si>
-    <t>艰难抉择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼干还是猫薄荷，这是一个问题。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼干</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踏实地才是合理之举。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫薄荷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣草才能引领我们抵达真实。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>图片</t>
   </si>
   <si>
-    <t>Sprites/Main/4刺探事件卡片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>遭遇守卫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -410,10 +382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>权力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资助</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -426,18 +394,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掉影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>继续活跃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>掉隐匿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点石成金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -462,18 +422,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>得影响，掉隐匿，救猫flag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>维持低调</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉影响，加隐匿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>偷梁换柱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -482,18 +430,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>胜利flag，隐匿度-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>换把钝剑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>失败flag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>陪酒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -533,18 +473,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宗教猫入神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>享受美梦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>常规</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鼠工具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -553,14 +485,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不准抓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以抓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鼠毒药</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -569,9 +493,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>放弃捕鼠</t>
-  </si>
-  <si>
     <t>认真工作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -580,34 +501,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>向亲王告密</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向国王汇报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加金币与影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>偿还</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>钱也不都是他的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>补足资金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>减钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>强行游说</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -616,14 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>扣钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>仔细翻找</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -648,9 +541,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/Main/5刺探事件卡片</t>
-  </si>
-  <si>
     <t>[516101,516102,516103]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -672,6 +562,230 @@
   </si>
   <si>
     <t>521124</t>
+  </si>
+  <si>
+    <t>女仆不慎引起了守卫的注意。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪隐匿度降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆会陷入危险，不过这和猫咪无关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以要一点“定金”，国王是不会吝啬的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有地位，更容易在猫咪中开展活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有金子，更好在人类社会办事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉帕兹的警惕也波及到了猫咪上。阻止暗杀，也得避开她的视线。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王会产生一丝不满，影响力降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续积极地行动，隐匿度会降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在的炼金术不过是障眼法而已。我们可以在他表演的时候把金子换走，让他难堪。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿走金子，戳穿他，并获得一些人类货币。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持低调，避免隐匿度下降。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王后似乎也对炼金术产生了几分怀疑。如果在这里穿帮，门提尔可能会陷入危险的境地。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被虐待的猫咪在向我们求救，但贸然出手又过于显眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动过于张扬。提升影响力，隐匿度下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视而不见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会留下坏名声。影响力下降，隐匿度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我们换掉瓦林提亚的剑，可能可以左右决斗的结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换把钝剑，班诺也可能会赢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换把好剑，班诺一定会败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪们不是冒昧打扰，而是营造浪漫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>它们会更喜欢猫咪，心防降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是站在一旁，也同样讨喜，影响力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捉奸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听到费琳娜的喊声后，女人马上逃开了。要让猫咪追上去吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪神秘人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄清神秘人的身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留下观察</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这边的情况更重要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪仿佛看到了一扇门，但怎么尝试都无法接近。或许只有更具备神性的猫咪才能触碰它。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪科恩执行行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受好当下，获得5点影响力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简陋的捕鼠工具。如果破坏这些工具，依斯皮柯可能会求助于猫咪。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有猫咪才是老鼠的天敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不干涉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让他抓去吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来不值钱的药丸。如果收起这些药丸，依斯皮柯可能会求助于猫咪。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不认真工作，老鼠可能会泛滥成灾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝捕鼠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让它们泛滥成灾吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安彼西奥并不会怀疑属下的忠诚，但我们有办法让他按兵不动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知亲王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安彼西奥将停止调动边境士兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散布流言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用更委婉的方式阻止他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借出去的钱也不都是他的，背后还有更大的利益链条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪们出钱，补足缺口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>略微损失猫咪的名声，影响力下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游行愈演愈烈，我们得做点什么平息这一切</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贿赂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让被控制的人类贿赂小头目，花费一些人类货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍耐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪受到更大的损害，失去一些影响力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1111,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1247,7 @@
     <col min="18" max="18" width="8" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,18 +1300,18 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>20000</v>
+        <v>20003</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -1209,174 +1323,153 @@
         <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10">
-        <v>1005</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>20007</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1006</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>20003</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D3" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="10">
+        <v>500072</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="10">
+        <v>500073</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>21010</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="10">
+        <v>510101</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="10">
+        <v>510102</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>21510</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>20007</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10">
-        <v>500072</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="10">
-        <v>500073</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>21010</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
@@ -1384,25 +1477,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="10">
-        <v>510101</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="L6" s="10">
-        <v>510102</v>
+        <v>515104</v>
       </c>
       <c r="M6" s="5">
         <v>0</v>
@@ -1417,18 +1510,17 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>21510</v>
+        <v>21511</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -1436,21 +1528,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="H7" s="10" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="L7" s="10">
-        <v>515104</v>
+        <v>515114</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -1465,18 +1561,17 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>21511</v>
+        <v>21610</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
@@ -1484,21 +1579,25 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H8" s="10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10">
-        <v>515114</v>
+        <v>84</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -1513,18 +1612,17 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>21610</v>
+        <v>21612</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
@@ -1532,25 +1630,25 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>91</v>
+        <v>33</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="10">
+        <v>516124</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -1565,18 +1663,17 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" t="s">
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>21613</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>21612</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4"/>
       <c r="D10" s="4">
         <v>5</v>
       </c>
@@ -1584,25 +1681,25 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="H10" s="10">
+        <v>516131</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L10" s="10">
-        <v>516124</v>
+        <v>516132</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -1617,18 +1714,17 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>21613</v>
+        <v>21712</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D11" s="4">
         <v>5</v>
       </c>
@@ -1636,25 +1732,25 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="H11" s="10">
-        <v>516131</v>
+        <v>517121</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="L11" s="10">
-        <v>516132</v>
+        <v>517122</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -1669,18 +1765,17 @@
         <v>0</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="R11" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>21712</v>
+        <v>21714</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="4">
         <v>5</v>
       </c>
@@ -1688,25 +1783,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="10">
-        <v>517121</v>
+        <v>95</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="10">
-        <v>517122</v>
+        <v>98</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -1721,18 +1816,17 @@
         <v>0</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21811</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D13" s="4">
         <v>5</v>
       </c>
@@ -1740,25 +1834,25 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I13" s="5">
         <v>418112</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -1773,18 +1867,17 @@
         <v>0</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>21910</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D14" s="4">
         <v>5</v>
       </c>
@@ -1792,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H14" s="10">
         <v>519102</v>
@@ -1803,9 +1896,11 @@
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="9" t="s">
-        <v>66</v>
+      <c r="J14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="L14" s="10">
         <v>0</v>
@@ -1823,18 +1918,17 @@
         <v>0</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>21911</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D15" s="4">
         <v>5</v>
       </c>
@@ -1842,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="H15" s="10">
         <v>519112</v>
@@ -1853,9 +1947,11 @@
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="9" t="s">
-        <v>66</v>
+      <c r="J15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="L15" s="10">
         <v>0</v>
@@ -1873,18 +1969,17 @@
         <v>0</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>21912</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="D16" s="4">
         <v>5</v>
       </c>
@@ -1892,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>65</v>
+        <v>109</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
@@ -1904,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="L16" s="10">
         <v>0</v>
@@ -1925,18 +2020,17 @@
         <v>0</v>
       </c>
       <c r="Q16" s="4"/>
-      <c r="R16" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>22012</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
@@ -1944,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="H17" s="10">
         <v>0</v>
@@ -1956,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="L17" s="10">
         <v>0</v>
@@ -1977,19 +2071,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>22016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
@@ -1998,25 +2089,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I18" s="5">
         <v>421123</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -2031,47 +2122,32 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>23000</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D20" s="4">
         <v>5</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>81</v>
+      <c r="F20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="H20" s="10">
         <v>530001</v>
@@ -2079,11 +2155,11 @@
       <c r="I20" s="5">
         <v>420165</v>
       </c>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>82</v>
+      <c r="J20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="L20" s="10">
         <v>530002</v>
@@ -2101,36 +2177,17 @@
         <v>0</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+    <row r="21" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20104</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4">
         <v>5</v>
       </c>
@@ -2138,26 +2195,18 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1005</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="10">
-        <v>1006</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="5">
         <v>0</v>
       </c>
@@ -2171,9 +2220,6 @@
         <v>0</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40D50D8-8D98-4BBE-A0A6-78708850A05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14771738-6BB6-4C53-A566-64A155C0BB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="5610" windowWidth="21195" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="3885" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>触发事件id</t>
   </si>
@@ -537,10 +537,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>516122,516123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[516101,516102,516103]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -549,14 +545,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>517131</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>517132</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>521122,521123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -785,6 +773,10 @@
   </si>
   <si>
     <t>猫咪受到更大的损害，失去一些影响力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518116</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1227,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -1323,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>58</v>
@@ -1335,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L2" s="10">
         <v>0</v>
@@ -1362,19 +1354,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10">
         <v>500072</v>
@@ -1386,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3" s="10">
         <v>500073</v>
@@ -1417,10 +1409,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1429,7 +1421,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H5" s="10">
         <v>510101</v>
@@ -1441,7 +1433,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L5" s="10">
         <v>510102</v>
@@ -1468,10 +1460,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1480,7 +1472,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>59</v>
@@ -1492,7 +1484,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L6" s="10">
         <v>515104</v>
@@ -1519,10 +1511,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1531,7 +1523,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>60</v>
@@ -1543,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L7" s="10">
         <v>515114</v>
@@ -1570,10 +1562,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1582,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -1621,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1633,10 +1625,10 @@
         <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1645,10 +1637,10 @@
         <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="10">
-        <v>516124</v>
+        <v>85</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -1672,10 +1664,10 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1723,10 +1715,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1735,7 +1727,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="10">
         <v>517121</v>
@@ -1747,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L11" s="10">
         <v>517122</v>
@@ -1771,37 +1763,37 @@
         <v>21714</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="L12" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -1825,10 +1817,10 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I13" s="5">
         <v>418112</v>
@@ -1849,10 +1841,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -1876,10 +1868,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1888,7 +1880,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H14" s="10">
         <v>519102</v>
@@ -1897,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L14" s="10">
         <v>0</v>
@@ -1927,10 +1919,10 @@
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1939,7 +1931,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H15" s="10">
         <v>519112</v>
@@ -1948,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L15" s="10">
         <v>0</v>
@@ -1978,19 +1970,19 @@
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
@@ -2002,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L16" s="10">
         <v>0</v>
@@ -2029,31 +2021,31 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="L17" s="10">
         <v>0</v>
@@ -2080,10 +2072,10 @@
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2092,10 +2084,10 @@
         <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" s="5">
         <v>421123</v>
@@ -2104,10 +2096,10 @@
         <v>54</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -2135,19 +2127,19 @@
         <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H20" s="10">
         <v>530001</v>
@@ -2156,10 +2148,10 @@
         <v>420165</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L20" s="10">
         <v>530002</v>
@@ -2189,7 +2181,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14771738-6BB6-4C53-A566-64A155C0BB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF917003-4495-424A-B008-8C7D89AFE359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="3885" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="6015" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>触发事件id</t>
   </si>
@@ -525,10 +525,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500032, 500033</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>515101,515102,515103</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -777,6 +773,10 @@
   </si>
   <si>
     <t>518116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500033</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="M2" s="5">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
@@ -1363,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H3" s="10">
         <v>500072</v>
@@ -1378,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="10">
         <v>500073</v>
@@ -1409,7 +1409,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -1421,7 +1421,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="10">
         <v>510101</v>
@@ -1433,7 +1433,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="10">
         <v>510102</v>
@@ -1460,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1472,10 +1472,10 @@
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" s="10">
         <v>515104</v>
@@ -1511,7 +1511,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -1523,10 +1523,10 @@
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7" s="10">
         <v>515114</v>
@@ -1562,7 +1562,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -1574,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="K8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -1625,10 +1625,10 @@
         <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -1727,7 +1727,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="10">
         <v>517121</v>
@@ -1739,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="10">
         <v>517122</v>
@@ -1763,10 +1763,10 @@
         <v>21714</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -1775,25 +1775,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="L12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -1829,10 +1829,10 @@
         <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="5">
         <v>418112</v>
@@ -1841,10 +1841,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="10">
         <v>519102</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="L14" s="10">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -1931,7 +1931,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="10">
         <v>519112</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="L15" s="10">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1979,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="10">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L16" s="10">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -2030,22 +2030,22 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="L17" s="10">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -2084,10 +2084,10 @@
         <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="5">
         <v>421123</v>
@@ -2096,10 +2096,10 @@
         <v>54</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2136,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="10">
         <v>530001</v>
@@ -2148,10 +2148,10 @@
         <v>420165</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="L20" s="10">
         <v>530002</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF917003-4495-424A-B008-8C7D89AFE359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2420C2-D6AF-40B9-B761-15726A9D6D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="6015" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="5865" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t>触发事件id</t>
   </si>
@@ -769,10 +769,6 @@
   </si>
   <si>
     <t>猫咪受到更大的损害，失去一些影响力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>518116</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1220,7 +1216,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1314,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -1823,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>44</v>
@@ -1844,7 +1840,7 @@
         <v>98</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2420C2-D6AF-40B9-B761-15726A9D6D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DC949-17DE-47F9-B2CF-E694F32FDF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="5865" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="6660" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>触发事件id</t>
   </si>
@@ -661,10 +661,6 @@
   </si>
   <si>
     <t>弄清神秘人的身份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1216,7 +1212,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1310,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -1325,9 +1321,7 @@
       <c r="K2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="L2" s="10"/>
       <c r="M2" s="5">
         <v>0</v>
       </c>
@@ -1623,9 +1617,7 @@
       <c r="G9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="5">
         <v>0</v>
       </c>
@@ -1635,9 +1627,7 @@
       <c r="K9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="5">
         <v>0</v>
       </c>
@@ -1776,21 +1766,17 @@
       <c r="G12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="5">
         <v>0</v>
       </c>
@@ -1813,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -1825,11 +1811,9 @@
         <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="5">
         <v>418112</v>
       </c>
@@ -1837,11 +1821,9 @@
         <v>45</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="5">
         <v>0</v>
       </c>
@@ -1864,7 +1846,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1876,7 +1858,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="10">
         <v>519102</v>
@@ -1885,14 +1867,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="5">
         <v>0</v>
       </c>
@@ -1915,7 +1895,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -1927,7 +1907,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="10">
         <v>519112</v>
@@ -1936,14 +1916,12 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="5">
         <v>0</v>
       </c>
@@ -1966,7 +1944,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1975,14 +1953,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="5">
         <v>0</v>
       </c>
@@ -1990,11 +1966,9 @@
         <v>50</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="5">
         <v>0</v>
       </c>
@@ -2017,7 +1991,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -2026,26 +2000,22 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="5">
         <v>0</v>
       </c>
@@ -2068,7 +2038,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -2080,7 +2050,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>62</v>
@@ -2092,7 +2062,7 @@
         <v>54</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>63</v>
@@ -2123,7 +2093,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2132,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="10">
         <v>530001</v>
@@ -2144,10 +2114,10 @@
         <v>420165</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="L20" s="10">
         <v>530002</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DC949-17DE-47F9-B2CF-E694F32FDF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F633DA-E13C-4FB4-BBA6-ABA72AFEA6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="6660" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15390" yWindow="5970" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F633DA-E13C-4FB4-BBA6-ABA72AFEA6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A9C5F-7FD1-4743-BFDA-D55169E62688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15390" yWindow="5970" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="5580" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>68</v>
@@ -1405,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -1507,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
@@ -1558,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>31</v>
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>34</v>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>36</v>
@@ -1707,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>41</v>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>91</v>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>47</v>
@@ -1901,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>47</v>
@@ -1950,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>104</v>
@@ -1997,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>107</v>
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>53</v>
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>115</v>
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>56</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A9C5F-7FD1-4743-BFDA-D55169E62688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0FDD4-7C16-43F2-83CE-59841AE6A4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="5580" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="5670" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1335,6 +1335,9 @@
         <v>0</v>
       </c>
       <c r="Q2" s="4"/>
+      <c r="R2" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1386,6 +1389,9 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4"/>
+      <c r="R3" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H4" s="7"/>
@@ -1441,6 +1447,9 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4"/>
+      <c r="R5" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1492,6 +1501,9 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4"/>
+      <c r="R6" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1543,6 +1555,9 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4"/>
+      <c r="R7" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="8" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1594,6 +1609,9 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4"/>
+      <c r="R8" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1641,6 +1659,9 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4"/>
+      <c r="R9" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1692,6 +1713,9 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4"/>
+      <c r="R10" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1743,6 +1767,9 @@
         <v>0</v>
       </c>
       <c r="Q11" s="4"/>
+      <c r="R11" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="12" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1790,6 +1817,9 @@
         <v>0</v>
       </c>
       <c r="Q12" s="4"/>
+      <c r="R12" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1837,6 +1867,9 @@
         <v>0</v>
       </c>
       <c r="Q13" s="4"/>
+      <c r="R13" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="14" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1886,6 +1919,9 @@
         <v>0</v>
       </c>
       <c r="Q14" s="4"/>
+      <c r="R14" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="15" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1935,6 +1971,9 @@
         <v>0</v>
       </c>
       <c r="Q15" s="4"/>
+      <c r="R15" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1982,8 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="4"/>
+      <c r="R16" s="3">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>22012</v>
       </c>
@@ -2029,8 +2071,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="4"/>
+      <c r="R17" s="3">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>22016</v>
       </c>
@@ -2080,12 +2125,15 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4"/>
+      <c r="R18" s="3">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>23000</v>
       </c>
@@ -2135,12 +2183,15 @@
         <v>0</v>
       </c>
       <c r="Q20" s="4"/>
+      <c r="R20" s="3">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20104</v>
       </c>
@@ -2178,6 +2229,9 @@
         <v>0</v>
       </c>
       <c r="Q22" s="4"/>
+      <c r="R22" s="3">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0FDD4-7C16-43F2-83CE-59841AE6A4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678FBCE9-D73F-422E-ABDA-60CF69C57713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="5670" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13050" yWindow="3645" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -305,12 +305,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type
+int32</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
   <si>
     <t>触发事件id</t>
   </si>
@@ -770,6 +785,9 @@
   <si>
     <t>500033</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动事件类型</t>
   </si>
 </sst>
 </file>
@@ -866,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +913,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1209,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,9 +1248,10 @@
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
     <col min="15" max="17" width="12" style="2" customWidth="1"/>
     <col min="18" max="18" width="8" style="7"/>
+    <col min="19" max="19" width="13" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20003</v>
       </c>
@@ -1338,8 +1361,11 @@
       <c r="R2" s="3">
         <v>10000</v>
       </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20007</v>
       </c>
@@ -1392,12 +1418,16 @@
       <c r="R3" s="3">
         <v>10000</v>
       </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H4" s="7"/>
       <c r="L4" s="7"/>
+      <c r="S4"/>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>21010</v>
       </c>
@@ -1450,8 +1480,11 @@
       <c r="R5" s="3">
         <v>10000</v>
       </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>21510</v>
       </c>
@@ -1504,8 +1537,11 @@
       <c r="R6" s="3">
         <v>10000</v>
       </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>21511</v>
       </c>
@@ -1558,8 +1594,11 @@
       <c r="R7" s="3">
         <v>10000</v>
       </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>21610</v>
       </c>
@@ -1612,8 +1651,11 @@
       <c r="R8" s="3">
         <v>10000</v>
       </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>21612</v>
       </c>
@@ -1662,8 +1704,11 @@
       <c r="R9" s="3">
         <v>10000</v>
       </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>21613</v>
       </c>
@@ -1716,8 +1761,11 @@
       <c r="R10" s="3">
         <v>10000</v>
       </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>21712</v>
       </c>
@@ -1770,8 +1818,11 @@
       <c r="R11" s="3">
         <v>10000</v>
       </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>21714</v>
       </c>
@@ -1820,8 +1871,11 @@
       <c r="R12" s="3">
         <v>10000</v>
       </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21811</v>
       </c>
@@ -1870,8 +1924,11 @@
       <c r="R13" s="3">
         <v>10000</v>
       </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>21910</v>
       </c>
@@ -1922,8 +1979,11 @@
       <c r="R14" s="3">
         <v>10000</v>
       </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>21911</v>
       </c>
@@ -1974,8 +2034,11 @@
       <c r="R15" s="3">
         <v>10000</v>
       </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>21912</v>
       </c>
@@ -2024,8 +2087,11 @@
       <c r="R16" s="3">
         <v>10000</v>
       </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>22012</v>
       </c>
@@ -2074,8 +2140,11 @@
       <c r="R17" s="3">
         <v>10000</v>
       </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>22016</v>
       </c>
@@ -2128,12 +2197,16 @@
       <c r="R18" s="3">
         <v>10000</v>
       </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="7"/>
       <c r="L19" s="7"/>
+      <c r="S19"/>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>23000</v>
       </c>
@@ -2186,12 +2259,16 @@
       <c r="R20" s="3">
         <v>10000</v>
       </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H21" s="7"/>
       <c r="L21" s="7"/>
+      <c r="S21"/>
     </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20104</v>
       </c>
@@ -2232,6 +2309,12 @@
       <c r="R22" s="3">
         <v>10000</v>
       </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678FBCE9-D73F-422E-ABDA-60CF69C57713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF9EDAD-CA73-4A1C-892B-C87356C1467F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="3645" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="5100" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="3">
-        <v>10000</v>
+        <v>10007</v>
       </c>
       <c r="S2" s="4">
         <v>0</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="3">
-        <v>10000</v>
+        <v>10007</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
@@ -1425,7 +1425,6 @@
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="S4"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1478,10 +1477,10 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="S5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1535,10 +1534,10 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="3">
-        <v>10000</v>
+        <v>11510</v>
       </c>
       <c r="S6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1592,10 +1591,10 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="3">
-        <v>10000</v>
+        <v>11510</v>
       </c>
       <c r="S7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1649,10 +1648,10 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="3">
-        <v>10000</v>
+        <v>11610</v>
       </c>
       <c r="S8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1702,10 +1701,10 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="3">
-        <v>10000</v>
+        <v>11610</v>
       </c>
       <c r="S9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1759,10 +1758,10 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="3">
-        <v>10000</v>
+        <v>11610</v>
       </c>
       <c r="S10" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1816,10 +1815,10 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="3">
-        <v>10000</v>
+        <v>11710</v>
       </c>
       <c r="S11" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1869,10 +1868,10 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="3">
-        <v>10000</v>
+        <v>11710</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1922,7 +1921,7 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="3">
-        <v>10000</v>
+        <v>11811</v>
       </c>
       <c r="S13" s="4">
         <v>0</v>
@@ -1977,10 +1976,10 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="3">
-        <v>10000</v>
+        <v>11913</v>
       </c>
       <c r="S14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2032,10 +2031,10 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="3">
-        <v>10000</v>
+        <v>11913</v>
       </c>
       <c r="S15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2085,10 +2084,10 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="3">
-        <v>10000</v>
+        <v>11913</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2138,10 +2137,10 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="3">
-        <v>10000</v>
+        <v>12010</v>
       </c>
       <c r="S17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2195,16 +2194,15 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="3">
-        <v>10000</v>
+        <v>12113</v>
       </c>
       <c r="S18" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="S19"/>
     </row>
     <row r="20" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2257,7 +2255,7 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="3">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="S20" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF9EDAD-CA73-4A1C-892B-C87356C1467F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E35F3ED-DC9E-41BE-B7F5-20242EBB177C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="5100" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="6105" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -591,10 +591,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嘉帕兹的警惕也波及到了猫咪上。阻止暗杀，也得避开她的视线。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>国王会产生一丝不满，影响力降低</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,10 +631,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如果我们换掉瓦林提亚的剑，可能可以左右决斗的结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>换把钝剑，班诺也可能会赢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -667,10 +659,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>听到费琳娜的喊声后，女人马上逃开了。要让猫咪追上去吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>追踪神秘人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -699,10 +687,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>简陋的捕鼠工具。如果破坏这些工具，依斯皮柯可能会求助于猫咪。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>只有猫咪才是老鼠的天敌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -715,10 +699,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>看起来不值钱的药丸。如果收起这些药丸，依斯皮柯可能会求助于猫咪。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不认真工作，老鼠可能会泛滥成灾。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -731,10 +711,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>安彼西奥并不会怀疑属下的忠诚，但我们有办法让他按兵不动。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>告知亲王</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -751,10 +727,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>借出去的钱也不都是他的，背后还有更大的利益链条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪们出钱，补足缺口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -788,6 +760,34 @@
   </si>
   <si>
     <t>行动事件类型</t>
+  </si>
+  <si>
+    <t>女仆的警惕也波及到了猫咪上。阻止暗杀，也得避开她的视线。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我们换掉侍从的剑，可能可以左右决斗的结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听到医生的喊声后，神秘的女人马上逃开了。要让猫咪追上去吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简陋的捕鼠工具。如果破坏这些工具，厨师可能会求助于猫咪。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来不值钱的药丸。如果收起这些药丸，厨师可能会求助于猫咪。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲王并不会怀疑属下的忠诚，但我们有办法让他按兵不动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯爵坐地起价，这下钱可能会不够</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -1446,7 +1446,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="10">
         <v>510101</v>
@@ -1458,7 +1458,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="10">
         <v>510102</v>
@@ -1491,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -1503,7 +1503,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>58</v>
@@ -1515,7 +1515,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="10">
         <v>515104</v>
@@ -1548,7 +1548,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -1560,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>59</v>
@@ -1572,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="10">
         <v>515114</v>
@@ -1605,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -1617,7 +1617,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>60</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>61</v>
@@ -1662,7 +1662,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -1674,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5">
@@ -1684,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="5">
@@ -1715,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -1772,7 +1772,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -1784,7 +1784,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="10">
         <v>517121</v>
@@ -1796,7 +1796,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L11" s="10">
         <v>517122</v>
@@ -1826,10 +1826,10 @@
         <v>21714</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -1838,20 +1838,20 @@
         <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="5">
@@ -1882,7 +1882,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -1894,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="5">
@@ -1904,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="5">
@@ -1935,7 +1935,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1947,7 +1947,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H14" s="10">
         <v>519102</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="5">
@@ -1990,7 +1990,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H15" s="10">
         <v>519112</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="5">
@@ -2045,7 +2045,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -2054,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="5">
@@ -2067,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="5">
@@ -2098,7 +2098,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -2107,20 +2107,20 @@
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="5">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="5">
@@ -2151,7 +2151,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
@@ -2163,7 +2163,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>62</v>
@@ -2175,7 +2175,7 @@
         <v>54</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>63</v>
@@ -2212,7 +2212,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2221,10 +2221,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H20" s="10">
         <v>530001</v>
@@ -2233,10 +2233,10 @@
         <v>420165</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L20" s="10">
         <v>530002</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E35F3ED-DC9E-41BE-B7F5-20242EBB177C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3003A79-DAF9-4F29-9E00-4ABAE94322C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="6105" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11385" yWindow="5085" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>触发事件id</t>
   </si>
@@ -787,6 +787,14 @@
   </si>
   <si>
     <t>侯爵坐地起价，这下钱可能会不够</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519112</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1230,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1352,9 @@
       <c r="K2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
       <c r="M2" s="5">
         <v>0</v>
       </c>
@@ -1423,8 +1433,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="H4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1437,7 +1447,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -1494,7 +1504,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1551,7 +1561,7 @@
         <v>76</v>
       </c>
       <c r="D7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -1608,7 +1618,7 @@
         <v>77</v>
       </c>
       <c r="D8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -1665,7 +1675,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -1676,7 +1686,9 @@
       <c r="G9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="I9" s="5">
         <v>0</v>
       </c>
@@ -1686,7 +1698,9 @@
       <c r="K9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="M9" s="5">
         <v>0</v>
       </c>
@@ -1718,7 +1732,7 @@
         <v>83</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -1775,7 +1789,7 @@
         <v>84</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -1832,7 +1846,7 @@
         <v>116</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1843,7 +1857,9 @@
       <c r="G12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
@@ -1853,7 +1869,9 @@
       <c r="K12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="M12" s="5">
         <v>0</v>
       </c>
@@ -1885,7 +1903,7 @@
         <v>92</v>
       </c>
       <c r="D13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1896,7 +1914,9 @@
       <c r="G13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="I13" s="5">
         <v>418112</v>
       </c>
@@ -1906,7 +1926,9 @@
       <c r="K13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="M13" s="5">
         <v>0</v>
       </c>
@@ -1938,7 +1960,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -1961,7 +1983,9 @@
       <c r="K14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
       <c r="M14" s="5">
         <v>0</v>
       </c>
@@ -1993,7 +2017,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -2004,8 +2028,8 @@
       <c r="G15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="10">
-        <v>519112</v>
+      <c r="H15" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -2016,7 +2040,9 @@
       <c r="K15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
       <c r="M15" s="5">
         <v>0</v>
       </c>
@@ -2048,7 +2074,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -2059,7 +2085,9 @@
       <c r="G16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
       <c r="I16" s="5">
         <v>0</v>
       </c>
@@ -2069,7 +2097,9 @@
       <c r="K16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
       <c r="M16" s="5">
         <v>0</v>
       </c>
@@ -2101,7 +2131,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -2112,7 +2142,9 @@
       <c r="G17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
       <c r="I17" s="5">
         <v>0</v>
       </c>
@@ -2122,7 +2154,9 @@
       <c r="K17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
       <c r="M17" s="5">
         <v>0</v>
       </c>
@@ -2154,7 +2188,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -2201,8 +2235,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="H19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2215,7 +2249,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -2262,9 +2296,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="S21"/>
+      <c r="H21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -2273,7 +2306,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -2305,7 +2338,7 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="3">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="S22" s="4">
         <v>0</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3003A79-DAF9-4F29-9E00-4ABAE94322C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCB702A-555C-45EE-994C-05E173DF6DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="5085" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="6675" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
   <si>
     <t>触发事件id</t>
   </si>
@@ -790,11 +790,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>519112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>519112</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1686,9 +1686,7 @@
       <c r="G9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="5">
         <v>0</v>
       </c>
@@ -1698,9 +1696,7 @@
       <c r="K9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="5">
         <v>0</v>
       </c>
@@ -1857,9 +1853,7 @@
       <c r="G12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
@@ -1869,9 +1863,7 @@
       <c r="K12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="5">
         <v>0</v>
       </c>
@@ -1915,7 +1907,7 @@
         <v>93</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I13" s="5">
         <v>418112</v>
@@ -1927,7 +1919,7 @@
         <v>94</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -1983,9 +1975,7 @@
       <c r="K14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="5">
         <v>0</v>
       </c>
@@ -2029,7 +2019,7 @@
         <v>95</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -2040,9 +2030,7 @@
       <c r="K15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="5">
         <v>0</v>
       </c>
@@ -2085,9 +2073,7 @@
       <c r="G16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="5">
         <v>0</v>
       </c>
@@ -2097,9 +2083,7 @@
       <c r="K16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="5">
         <v>0</v>
       </c>
@@ -2142,9 +2126,7 @@
       <c r="G17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="5">
         <v>0</v>
       </c>
@@ -2154,9 +2136,7 @@
       <c r="K17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="5">
         <v>0</v>
       </c>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCB702A-555C-45EE-994C-05E173DF6DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C319208-4A40-49C1-B638-F3FA4912D3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="6675" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10110" yWindow="4290" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1329,7 +1329,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -1386,7 +1386,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -1504,7 +1504,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1561,7 +1561,7 @@
         <v>76</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -1618,7 +1618,7 @@
         <v>77</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -1675,7 +1675,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>83</v>
       </c>
       <c r="D10" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -1785,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="D11" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -1842,7 +1842,7 @@
         <v>116</v>
       </c>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>92</v>
       </c>
       <c r="D13" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1952,7 +1952,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -2062,7 +2062,7 @@
         <v>98</v>
       </c>
       <c r="D16" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -2115,7 +2115,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -2168,7 +2168,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -2229,7 +2229,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -2286,7 +2286,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C319208-4A40-49C1-B638-F3FA4912D3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F68CEA-21DD-4AF1-889B-4D70BB479F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="4290" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="3915" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -571,10 +571,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>女仆会陷入危险，不过这和猫咪无关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我们可以要一点“定金”，国王是不会吝啬的。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -591,26 +587,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国王会产生一丝不满，影响力降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续积极地行动，隐匿度会降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>现在的炼金术不过是障眼法而已。我们可以在他表演的时候把金子换走，让他难堪。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拿走金子，戳穿他，并获得一些人类货币。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持低调，避免隐匿度下降。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>王后似乎也对炼金术产生了几分怀疑。如果在这里穿帮，门提尔可能会陷入危险的境地。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -619,18 +599,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>行动过于张扬。提升影响力，隐匿度下降</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>视而不见</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>会留下坏名声。影响力下降，隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>换把钝剑，班诺也可能会赢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -647,14 +619,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>它们会更喜欢猫咪，心防降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只是站在一旁，也同样讨喜，影响力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>捉奸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -743,18 +707,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>让被控制的人类贿赂小头目，花费一些人类货币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>忍耐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪受到更大的损害，失去一些影响力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>500033</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -795,6 +751,50 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王产生不满，影响力降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳穿他，并获得一些人类货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升影响力，但行动过于张扬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>它们会更喜欢猫咪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花30货币贿赂游行头目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆陷入危险，不过这与猫咪无关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极行动，隐匿度降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持低调，隐匿度不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留下坏名声，但隐匿度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是站在一旁，也同样讨喜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪将受到更大的损害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1236,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="L2" s="10">
         <v>0</v>
@@ -1383,19 +1383,19 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H3" s="10">
         <v>500072</v>
@@ -1407,7 +1407,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="10">
         <v>500073</v>
@@ -1444,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="H5" s="10">
         <v>510101</v>
@@ -1468,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="L5" s="10">
         <v>510102</v>
@@ -1501,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -1513,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>58</v>
@@ -1525,7 +1525,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="L6" s="10">
         <v>515104</v>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -1570,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>59</v>
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="L7" s="10">
         <v>515114</v>
@@ -1615,7 +1615,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>60</v>
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>61</v>
@@ -1672,7 +1672,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="5">
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="5">
@@ -1725,7 +1725,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -1794,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H11" s="10">
         <v>517121</v>
@@ -1806,7 +1806,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="L11" s="10">
         <v>517122</v>
@@ -1836,10 +1836,10 @@
         <v>21714</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -1848,20 +1848,20 @@
         <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="5">
@@ -1892,7 +1892,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1904,10 +1904,10 @@
         <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I13" s="5">
         <v>418112</v>
@@ -1916,10 +1916,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -1961,7 +1961,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H14" s="10">
         <v>519102</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="5">
@@ -2004,7 +2004,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -2016,19 +2016,19 @@
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="5">
@@ -2059,7 +2059,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -2068,10 +2068,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="5">
@@ -2081,7 +2081,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="5">
@@ -2112,7 +2112,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -2121,20 +2121,20 @@
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="5">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="5">
@@ -2165,7 +2165,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>62</v>
@@ -2189,7 +2189,7 @@
         <v>54</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>63</v>
@@ -2226,7 +2226,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -2235,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H20" s="10">
         <v>530001</v>
@@ -2247,10 +2247,10 @@
         <v>420165</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L20" s="10">
         <v>530002</v>
@@ -2325,7 +2325,16 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="S23"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
+++ b/ExcelConfig/pbjson/excel/突发事件信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F68CEA-21DD-4AF1-889B-4D70BB479F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F52C2-40E6-4CCC-90D6-FAC8A802913E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="3915" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="4680" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#突发事件配置" sheetId="1" r:id="rId1"/>
@@ -647,10 +647,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>享受好当下，获得5点影响力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>只有猫咪才是老鼠的天敌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -795,6 +791,10 @@
   </si>
   <si>
     <t>猫咪将受到更大的损害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受好当下，获得影响力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="K13" sqref="K12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L2" s="10">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="10">
         <v>510101</v>
@@ -1468,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5" s="10">
         <v>510102</v>
@@ -1513,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>58</v>
@@ -1525,7 +1525,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="10">
         <v>515104</v>
@@ -1570,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>59</v>
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L7" s="10">
         <v>515114</v>
@@ -1627,7 +1627,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>60</v>
@@ -1639,7 +1639,7 @@
         <v>73</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>61</v>
@@ -1672,7 +1672,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1794,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="10">
         <v>517121</v>
@@ -1806,7 +1806,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="10">
         <v>517122</v>
@@ -1839,7 +1839,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -1907,7 +1907,7 @@
         <v>84</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I13" s="5">
         <v>418112</v>
@@ -1916,10 +1916,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -1961,7 +1961,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="10">
         <v>519102</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="5">
@@ -2004,7 +2004,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -2016,19 +2016,19 @@
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="5">
@@ -2059,19 +2059,19 @@
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="5">
@@ -2081,7 +2081,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="5">
@@ -2112,7 +2112,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -2121,20 +2121,20 @@
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="5">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="5">
@@ -2165,7 +2165,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>62</v>
@@ -2189,7 +2189,7 @@
         <v>54</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>63</v>
@@ -2226,19 +2226,19 @@
         <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="10">
         <v>530001</v>
@@ -2247,10 +2247,10 @@
         <v>420165</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L20" s="10">
         <v>530002</v>
